--- a/output/item/스탠드/2022-01-12_스탠드.xlsx
+++ b/output/item/스탠드/2022-01-12_스탠드.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>47000</t>
+          <t>46000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -955,22 +955,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>듀플렉스 DP-310LS</t>
+          <t>큐디스 USB LED 스탠드</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=9432703889</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17060899687</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_9432703/9432703889.20201008151032.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1706089/17060899687.20210917144350.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24650</t>
+          <t>4900</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -986,12 +986,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>듀플렉스</t>
+          <t>큐디스</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>듀플렉스</t>
+          <t>큐디스</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1021,22 +1021,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>큐디스 USB LED 스탠드</t>
+          <t>듀플렉스 DP-310LS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17060899687</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9432703889</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1706089/17060899687.20210917144350.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9432703/9432703889.20201008151032.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4900</t>
+          <t>24750</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1052,12 +1052,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>큐디스</t>
+          <t>듀플렉스</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>큐디스</t>
+          <t>듀플렉스</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23340</t>
+          <t>23360</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -2011,22 +2011,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>브리츠 BE-LED10W</t>
+          <t>이지넷유비쿼터스 넥스트 NEXT-211LAMP-W</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22265886605</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27132503522</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2226588/22265886605.20200323103143.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713250/27132503522.20210513084051.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>39800</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2042,12 +2042,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>넥스트</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>브리츠</t>
+          <t>이지넷유비쿼터스</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2077,22 +2077,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>플랜룩스 모티아이 LED 스탠드</t>
+          <t>브리츠 BE-LED10W</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21100161497</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22265886605</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2110016/21100161497.20211111154138.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2226588/22265886605.20200323103143.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>77800</t>
+          <t>39800</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2108,12 +2108,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>플랜룩스</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>플랜룩스</t>
+          <t>브리츠</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2143,22 +2143,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>이지넷유비쿼터스 넥스트 NEXT-122LAMP-WC</t>
+          <t>플랜룩스 모티아이 LED 스탠드</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21396473240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21100161497</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2139647/21396473240.20211215184908.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2110016/21100161497.20211111154138.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>77800</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>넥스트</t>
+          <t>플랜룩스</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>이지넷유비쿼터스</t>
+          <t>플랜룩스</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2209,22 +2209,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>이지넷유비쿼터스 넥스트 NEXT-211LAMP-W</t>
+          <t>이지넷유비쿼터스 넥스트 NEXT-122LAMP-WC</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27132503522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21396473240</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713250/27132503522.20210513084051.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2139647/21396473240.20211215184908.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19900</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>17000</t>
+          <t>16270</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>44700</t>
+          <t>44680</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3835,22 +3835,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>벤큐 WiT 아이케어 LED 스탠드</t>
+          <t>아이클 WJK-151C</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=9405434840</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6512970130</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_9405434/9405434840.20201215164048.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6512970/6512970130.20220111134842.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>198990</t>
+          <t>60360</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3866,12 +3866,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>아이클</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>아이클</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3901,43 +3901,43 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>파나소닉 LED스탠드 5W 접이식 무선스탠드 휴대용스탠드 USB충전방식 침대독서등</t>
+          <t>벤큐 WiT 아이케어 LED 스탠드</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82510260293</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9405434840</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8251026/82510260293.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9405434/9405434840.20201215164048.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>23500</t>
+          <t>198990</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>엔셀라이트</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>파나소닉</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>파나소닉</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3967,43 +3967,43 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>아이클 WJK-151C</t>
+          <t>파나소닉 LED스탠드 5W 접이식 무선스탠드 휴대용스탠드 USB충전방식 침대독서등</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6512970130</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82510260293</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6512970/6512970130.20220111134842.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8251026/82510260293.3.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>60360</t>
+          <t>23500</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>엔셀라이트</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>아이클</t>
+          <t>파나소닉</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>아이클</t>
+          <t>파나소닉</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>68840</t>
+          <t>68830</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4359,43 +4359,43 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>책상스탠드 LED스탠드 공부스탠드 시력보호 학생 공부방 탁상</t>
+          <t>아모전자 아모램프 에스2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82294931364</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21444465655</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229493/82294931364.6.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2144446/21444465655.20191204140327.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>78900</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>최고의선택.</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TENEY</t>
+          <t>아모램프</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>태인일렉콤</t>
+          <t>아모전자</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4425,43 +4425,43 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>아모전자 아모램프 에스2</t>
+          <t>책상스탠드 LED스탠드 공부스탠드 시력보호 학생 공부방 탁상</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21444465655</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82294931364</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2144446/21444465655.20191204140327.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229493/82294931364.6.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>78900</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>최고의선택.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>아모램프</t>
+          <t>TENEY</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>아모전자</t>
+          <t>태인일렉콤</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4549,36 +4549,40 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>클래시 LED 폴딩 블루라이트차단 스탠드 공부 공부용 학생 학습용 무선스탠드 책상스탠드</t>
+          <t>e스마트 터치 LED스탠드</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83068920686</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13922662497</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8306892/83068920686.9.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1392266/13922662497.20181210164958.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>61900</t>
+          <t>64420</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>클래시스토어</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>e스마트</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -4607,40 +4611,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>e스마트 터치 LED스탠드</t>
+          <t>클래시 LED 폴딩 블루라이트차단 스탠드 공부 공부용 학생 학습용 무선스탠드 책상스탠드</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13922662497</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83068920686</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1392266/13922662497.20181210164958.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8306892/83068920686.9.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>64420</t>
+          <t>61900</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>클래시스토어</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>e스마트</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>32530</t>
+          <t>32710</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>23490</t>
+          <t>23310</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -6151,43 +6151,43 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>파나소닉 접이식 LED스탠드 5W 무선스탠드 휴대용스탠드 USB충전방식 침대독서등 신학기</t>
+          <t>피티코퍼레이션 단순생활 LED 책상 스탠드</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82512827486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27665714522</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8251282/82512827486.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2766571/27665714522.20210713150202.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>23500</t>
+          <t>35690</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>빛과 바람</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>파나소닉</t>
+          <t>단순생활</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>파나소닉</t>
+          <t>피티코퍼레이션</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6217,43 +6217,43 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>피티코퍼레이션 단순생활 LED 책상 스탠드</t>
+          <t>파나소닉 접이식 LED스탠드 5W 무선스탠드 휴대용스탠드 USB충전방식 침대독서등 신학기</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27665714522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82512827486</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2766571/27665714522.20210713150202.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8251282/82512827486.1.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>35500</t>
+          <t>23500</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>빛과 바람</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>단순생활</t>
+          <t>파나소닉</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>피티코퍼레이션</t>
+          <t>파나소닉</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6283,43 +6283,43 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3M LED스탠드 Air X+/10 시력보호 독서실 학생용 공부 책상 스탠드 조명</t>
+          <t>듀플렉스 DP-910LS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82411579763</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10173799151</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8241157/82411579763.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1017379/10173799151.20201013143216.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>58990</t>
+          <t>29450</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>스페이스작</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>3M</t>
+          <t>듀플렉스</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>3M</t>
+          <t>듀플렉스</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6349,28 +6349,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>파파 LED와이드스탠드 800B 500 책상 책상용 학습용 사무용 공부용 조명 독서등 스탠드 스텐드</t>
+          <t>3M LED스탠드 Air X+/10 시력보호 독서실 학생용 공부 책상 스탠드 조명</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82962775566</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82411579763</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8296277/82962775566.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8241157/82411579763.5.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>40500</t>
+          <t>58990</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>주랩</t>
+          <t>스페이스작</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -6380,12 +6380,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>파파</t>
+          <t>3M</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>베스트조명</t>
+          <t>3M</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6415,43 +6415,43 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>듀플렉스 DP-910LS</t>
+          <t>파파 LED와이드스탠드 800B 500 책상 책상용 학습용 사무용 공부용 조명 독서등 스탠드 스텐드</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10173799151</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82962775566</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1017379/10173799151.20201013143216.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8296277/82962775566.3.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>29470</t>
+          <t>40500</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>주랩</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>듀플렉스</t>
+          <t>파파</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>듀플렉스</t>
+          <t>베스트조명</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6481,22 +6481,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>넥소버 NXL-5000</t>
+          <t>필립스 데스크 라이트 갈릴레오 66102</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27805503522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25748863523</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780550/27805503522.20211110161237.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574886/25748863523.20210126175348.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>23160</t>
+          <t>56000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6512,14 +6512,10 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>넥소버</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>넥소버</t>
-        </is>
-      </c>
+          <t>필립스</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -6547,43 +6543,43 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>플랜룩스 무선스탠드 LSV-01 타이머 책상 LED스탠드 침대 독서등 충전식</t>
+          <t>대원씨엘 디트렌드 루미나 앱솔루트</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81371921035</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25680612522</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8137192/81371921035.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2568061/25680612522.20210217105610.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>64350</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>플랜룩스 스토어</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>플랜룩스</t>
+          <t>디트렌드</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>플랜룩스</t>
+          <t>대원씨엘</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6613,43 +6609,43 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>대원씨엘 디트렌드 루미나 앱솔루트</t>
+          <t>플랜룩스 무선스탠드 LSV-01 타이머 책상 LED스탠드 침대 독서등 충전식</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25680612522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81371921035</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2568061/25680612522.20210217105610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8137192/81371921035.4.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>64350</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>플랜룩스 스토어</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>디트렌드</t>
+          <t>플랜룩스</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>대원씨엘</t>
+          <t>플랜룩스</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6679,22 +6675,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>필립스 데스크 라이트 갈릴레오 66102</t>
+          <t>필립스 할리 66127</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25748863523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21327507911</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574886/25748863523.20210126175348.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2132750/21327507911.20191118105932.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>56000</t>
+          <t>32940</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6713,7 +6709,11 @@
           <t>필립스</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>필립스</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -6741,22 +6741,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>필립스 할리 66127</t>
+          <t>넥소버 NXL-5000</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21327507911</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27805503522</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2132750/21327507911.20191118105932.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780550/27805503522.20211110161237.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>32960</t>
+          <t>23160</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6772,12 +6772,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>넥소버</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>넥소버</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
